--- a/6_publication/1_toPSAil/2_data/3.0_computational_benefits_comparisons/comparisons_num_eff.xlsx
+++ b/6_publication/1_toPSAil/2_data/3.0_computational_benefits_comparisons/comparisons_num_eff.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.1\4_additional_plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\2_data\3.0_computational_benefits_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A51FCC-9F77-499C-9CFB-18275F491FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511A90FB-807C-494B-A398-0F91C39A7AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{629B569E-946E-4B1C-9D49-8264BBEF7928}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data_old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Kayser and Knaebel</t>
   </si>
@@ -121,12 +122,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,18 +168,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E1CF349A-851F-43A8-84EB-DE139FF81E68}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -199,6 +240,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -222,6 +276,177 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -535,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E22F446-C246-4AF9-B14C-CB2A0EEA065D}">
-  <dimension ref="A3:Q11"/>
+  <dimension ref="A3:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -555,7 +780,7 @@
     <col min="17" max="17" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -608,7 +833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -664,7 +889,7 @@
         <v>35.282833333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -716,7 +941,7 @@
         <v>113.70471428571427</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -768,7 +993,7 @@
         <v>11.649771428571427</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -820,7 +1045,7 @@
         <v>127.7186</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -874,7 +1099,7 @@
         <v>7.7678200000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -926,7 +1151,7 @@
         <v>35.782400000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -972,7 +1197,7 @@
         <v>19.3325</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1008,6 +1233,597 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="15" spans="1:17">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B32EF14-03C7-4F57-9E30-DF09E7A088E9}">
+  <dimension ref="A3:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13543</v>
+      </c>
+      <c r="I4" s="1">
+        <v>133593</v>
+      </c>
+      <c r="J4" s="2">
+        <f>H4/I4</f>
+        <v>0.1013750720471881</v>
+      </c>
+      <c r="K4" s="1">
+        <v>426.42200000000003</v>
+      </c>
+      <c r="L4" s="1">
+        <v>444.43799999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>411.92200000000003</v>
+      </c>
+      <c r="N4" s="1">
+        <v>413.04700000000003</v>
+      </c>
+      <c r="O4" s="1">
+        <v>421.14100000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <f>AVERAGE(K4:O4)/G4</f>
+        <v>70.565666666666672</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>P4/E4</f>
+        <v>35.282833333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>307704</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1554.22</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1561.77</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1599.25</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1609.81</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1634.28</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:P11" si="0">AVERAGE(K5:O5)/G5</f>
+        <v>227.40942857142855</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q11" si="1">P5/E5</f>
+        <v>113.70471428571427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1">
+        <v>165.65600000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>151.125</v>
+      </c>
+      <c r="M6" s="1">
+        <v>171.75</v>
+      </c>
+      <c r="N6" s="1">
+        <v>155.797</v>
+      </c>
+      <c r="O6" s="1">
+        <v>171.15600000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>23.299542857142853</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>11.649771428571427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1271.3399999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1272.06</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1289.17</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1278.6600000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1274.7</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>255.43719999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>127.7186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2" t="e">
+        <f t="shared" ref="J8" si="2">H8/I8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="1">
+        <v>226.68799999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>250.75</v>
+      </c>
+      <c r="M8" s="1">
+        <v>228</v>
+      </c>
+      <c r="N8" s="1">
+        <v>226.06299999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>233.672</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>15.535640000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7678200000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>104520</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1094.45</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1062</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1059.3900000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1062.3599999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1089.1600000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>71.564800000000005</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>35.782400000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1670.64</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1577.22</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>38.664999999999999</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>19.3325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
